--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais/Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais/Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris du Pas-de-Calais dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département du Pas-de-Calais, en région Hauts-de-France.
-En 2023, 73 communes du département figurent au palmarès du concours, soit 8 % des communes du département du Pas-de-Calais[1].
+En 2023, 73 communes du département figurent au palmarès du concours, soit 8 % des communes du département du Pas-de-Calais.
 </t>
         </is>
       </c>
@@ -514,15 +526,94 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition selon le nombre de fleurs
-Les 73 communes sont réparties comme suit :
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les 73 communes sont réparties comme suit :
 4 fleurs : 9 communes ;
 3 fleurs : 16 communes ;
 2 fleurs : 22 communes ;
-1 fleur : 26 communes.
-Liste des communes
-La liste suivante répertorie les communes du Pas-de-Calais labellisées « Ville ou village fleuri »[a] :
-4 fleurs
+1 fleur : 26 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes du Pas-de-Calais labellisées « Ville ou village fleuri »[a] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Berck
 Boubers-sur-Canche
 Boulogne-sur-Mer
@@ -532,7 +623,47 @@
 Montreuil-sur-Mer
 Saint-Josse
 Le Touquet-Paris-Plage
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ardres
 Arques
 Arras
@@ -549,7 +680,47 @@
 Le Portel
 Ruitz
 Wimereux
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Annequin
 Aubigny-en-Artois
 Beuvry
@@ -572,7 +743,47 @@
 Tilloy-lès-Mofflaines
 Tilques
 Wimille
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_du_Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aire-sur-la-Lys
 Auxi-le-Château
 Bourthes
